--- a/数据挖掘实战-cnn cnn_bilstm bilstm bp神经网络 情感分析 影响因果分析/隐藏层到输出层权重.xlsx
+++ b/数据挖掘实战-cnn cnn_bilstm bilstm bp神经网络 情感分析 影响因果分析/隐藏层到输出层权重.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.497271725124109</v>
+        <v>0.3418964388094483</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05428804463324675</v>
+        <v>0.8303786767201587</v>
       </c>
       <c r="E2" t="n">
-        <v>1.561340297622279</v>
+        <v>0.9328627813473016</v>
       </c>
     </row>
   </sheetData>
